--- a/Significant_SNPs_MLM.xlsx
+++ b/Significant_SNPs_MLM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1931b30e1dc6d6c/Desktop/annotation for five traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1931b30e1dc6d6c/Desktop/SigSNPs_Genes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104847911845565BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8466FEC-8385-45DB-BE04-6C6CA5103B7B}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104847911845565BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D734F1-DD58-4E39-9E03-DE5737239B5B}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,17 +180,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -206,12 +195,10 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,10 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -533,11 +516,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -562,11 +545,11 @@
       <c r="H2" s="3">
         <v>7.8899999999999998E-7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -591,11 +574,11 @@
       <c r="H3" s="3">
         <v>1.6199999999999999E-6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -620,11 +603,11 @@
       <c r="H4" s="3">
         <v>1.9800000000000001E-6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -649,11 +632,11 @@
       <c r="H5" s="3">
         <v>2.9399999999999998E-6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -678,11 +661,11 @@
       <c r="H6" s="3">
         <v>2.9399999999999998E-6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -707,11 +690,11 @@
       <c r="H7" s="3">
         <v>6.3999999999999997E-6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -733,14 +716,14 @@
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>5.5600000000000001E-6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -762,14 +745,14 @@
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>2.6199999999999999E-6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -791,14 +774,14 @@
       <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>2.6199999999999999E-6</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -820,10 +803,10 @@
       <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>6.9E-6</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -849,10 +832,10 @@
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>9.1200000000000008E-6</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -878,10 +861,10 @@
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1.57E-6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -907,14 +890,14 @@
       <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>4.6299999999999997E-6</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -936,14 +919,14 @@
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>8.4600000000000003E-6</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -965,14 +948,14 @@
       <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>1.48E-6</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -994,14 +977,14 @@
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>3.4300000000000002E-6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,14 +1006,14 @@
       <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>3.4300000000000002E-6</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1052,14 +1035,14 @@
       <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>5.7699999999999998E-6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1081,14 +1064,14 @@
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>8.8300000000000002E-6</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -1110,21 +1093,14 @@
       <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>5.0699999999999997E-6</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I21" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Kernel Weight"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:I20">
     <sortCondition ref="A1:A21"/>
   </sortState>
